--- a/data/trans_orig/P24B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>33472</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23802</v>
+        <v>24240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44921</v>
+        <v>45791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2207768427190856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1569956386064093</v>
+        <v>0.1598833410950024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2962914444050155</v>
+        <v>0.3020263784972478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,19 +764,19 @@
         <v>17402</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10760</v>
+        <v>11162</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25923</v>
+        <v>26787</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1885862473135106</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1166096545327686</v>
+        <v>0.1209654935014098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2809384748682092</v>
+        <v>0.2902965532099012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -785,19 +785,19 @@
         <v>50874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38526</v>
+        <v>38989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65131</v>
+        <v>64752</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2085975123829155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1579687794283395</v>
+        <v>0.1598656984068601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2670543205754792</v>
+        <v>0.2654995950843723</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>104548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93116</v>
+        <v>92884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115389</v>
+        <v>115080</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6895767637962654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.614175356151027</v>
+        <v>0.6126409435857934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7610776686822147</v>
+        <v>0.7590398237755349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -835,19 +835,19 @@
         <v>55592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46633</v>
+        <v>44914</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65668</v>
+        <v>64698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6024719247017634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5053796829816037</v>
+        <v>0.4867472792264619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7116604469685266</v>
+        <v>0.7011549391556122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>157</v>
@@ -856,19 +856,19 @@
         <v>160141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144578</v>
+        <v>144159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176204</v>
+        <v>175558</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6566205976910822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5928102963965204</v>
+        <v>0.5910920534762463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7224849268898218</v>
+        <v>0.7198358451159929</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>13591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7636</v>
+        <v>7321</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23352</v>
+        <v>22026</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08964639348464899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05036724491974399</v>
+        <v>0.0482866433317576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1540219307551041</v>
+        <v>0.1452796701978522</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>19280</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11227</v>
+        <v>12106</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27122</v>
+        <v>28559</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.208941827984726</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1216707494523736</v>
+        <v>0.1311972368881781</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2939317271771926</v>
+        <v>0.3095015536243644</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -927,19 +927,19 @@
         <v>32871</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22406</v>
+        <v>23458</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45379</v>
+        <v>44610</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1347818899260023</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09187053548921482</v>
+        <v>0.09618490454017688</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1860677455331599</v>
+        <v>0.1829133478819355</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>25481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16886</v>
+        <v>17237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36411</v>
+        <v>36070</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1885122547738846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1249223975243495</v>
+        <v>0.1275194567635152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2693744389121273</v>
+        <v>0.2668521892781071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1052,19 +1052,19 @@
         <v>30305</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21267</v>
+        <v>20822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40649</v>
+        <v>40041</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2278537159783978</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1599050332387778</v>
+        <v>0.1565564233835911</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3056326897410895</v>
+        <v>0.3010619617175876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -1073,19 +1073,19 @@
         <v>55785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43017</v>
+        <v>43478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70759</v>
+        <v>70023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2080238970901439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1604090882107343</v>
+        <v>0.1621300106740299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2638592671272315</v>
+        <v>0.2611159592510546</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>90937</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>77323</v>
+        <v>78677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>100946</v>
+        <v>101685</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6727737900398723</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5720515371507151</v>
+        <v>0.5820687137555505</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7468217256574564</v>
+        <v>0.752289232361573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -1123,19 +1123,19 @@
         <v>83488</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71835</v>
+        <v>72318</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>94368</v>
+        <v>94422</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6277325476492509</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5401161199562678</v>
+        <v>0.5437424776894788</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7095331548183311</v>
+        <v>0.7099408902494988</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>168</v>
@@ -1144,19 +1144,19 @@
         <v>174426</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>157974</v>
+        <v>159360</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>188406</v>
+        <v>190208</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.650435305802156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5890859375180774</v>
+        <v>0.5942558498202568</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7025660855950727</v>
+        <v>0.7092862287768994</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>18750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11591</v>
+        <v>11134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28949</v>
+        <v>28856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1387139551862431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0857531018648303</v>
+        <v>0.08237051339940085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2141724867635705</v>
+        <v>0.2134820524314208</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1194,19 +1194,19 @@
         <v>19207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12550</v>
+        <v>12468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28629</v>
+        <v>28944</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1444137363723513</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09436236881923526</v>
+        <v>0.09374559747512824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2152583242216957</v>
+        <v>0.2176213761736545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1215,19 +1215,19 @@
         <v>37957</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28042</v>
+        <v>27245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50572</v>
+        <v>49537</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1415407971077</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1045700442194957</v>
+        <v>0.1015977686725052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1885847205519129</v>
+        <v>0.1847232030349981</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>33548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24272</v>
+        <v>23923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44838</v>
+        <v>45652</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1319718112222093</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09547946954649909</v>
+        <v>0.09410637747246654</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1763837835453063</v>
+        <v>0.1795858971043931</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1340,19 +1340,19 @@
         <v>13306</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6962</v>
+        <v>7834</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19539</v>
+        <v>20044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2879935943213473</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1506861851649366</v>
+        <v>0.1695509511249606</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4228924996100288</v>
+        <v>0.4338173539302132</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1361,19 +1361,19 @@
         <v>46855</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36009</v>
+        <v>34684</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60985</v>
+        <v>58837</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1559677555588289</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1198635487402002</v>
+        <v>0.1154555133762453</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.203002834431762</v>
+        <v>0.1958552808518547</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>185341</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170114</v>
+        <v>171149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198719</v>
+        <v>199000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7290892074850602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6691885420326796</v>
+        <v>0.6732618685118885</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7817147802700743</v>
+        <v>0.7828205087670127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1411,19 +1411,19 @@
         <v>23312</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17385</v>
+        <v>16706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30586</v>
+        <v>30727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5045584317051767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3762667255035341</v>
+        <v>0.3615859196956978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6619839858569823</v>
+        <v>0.6650494779731753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>204</v>
@@ -1432,19 +1432,19 @@
         <v>208654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192729</v>
+        <v>192409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222837</v>
+        <v>224868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6945566704863733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6415469504562571</v>
+        <v>0.6404816614807375</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7417684748275953</v>
+        <v>0.7485309109713232</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>35320</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25456</v>
+        <v>24719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47715</v>
+        <v>46636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1389389812927305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1001391244675689</v>
+        <v>0.09723788142642499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1877010472113971</v>
+        <v>0.183455998588995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1482,19 +1482,19 @@
         <v>9585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4969</v>
+        <v>4621</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15842</v>
+        <v>15331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.207447973973476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1075488713859533</v>
+        <v>0.1000064052015528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3428757485771928</v>
+        <v>0.3318095004868282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -1503,19 +1503,19 @@
         <v>44904</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33366</v>
+        <v>33297</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58759</v>
+        <v>59573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1494755739547979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1110671543570346</v>
+        <v>0.1108384338284999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1955953867945521</v>
+        <v>0.1983037991847598</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>85654</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69827</v>
+        <v>70174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104557</v>
+        <v>104812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1516863768258291</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1236575371945061</v>
+        <v>0.124272900116692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1851629751461194</v>
+        <v>0.1856139291697796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1628,19 +1628,19 @@
         <v>50764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39089</v>
+        <v>38227</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64407</v>
+        <v>63417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2105540575845471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1621317598378202</v>
+        <v>0.1585550132055381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2671436650616612</v>
+        <v>0.2630354349749318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -1649,19 +1649,19 @@
         <v>136418</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115027</v>
+        <v>115420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158347</v>
+        <v>158371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.169300172827193</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1427534995267097</v>
+        <v>0.143241683295788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1965157211371954</v>
+        <v>0.196544593467488</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>403530</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>381410</v>
+        <v>381807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>424734</v>
+        <v>425290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7146191456253875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6754475716876167</v>
+        <v>0.6761503041902922</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7521698187749354</v>
+        <v>0.7531554017554641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -1699,19 +1699,19 @@
         <v>139671</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>123133</v>
+        <v>124603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153212</v>
+        <v>154837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5793155236053635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5107225476344948</v>
+        <v>0.5168209986111834</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6354823240452097</v>
+        <v>0.6422214231817487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>531</v>
@@ -1720,19 +1720,19 @@
         <v>543200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>515209</v>
+        <v>515697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>568222</v>
+        <v>568709</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6741349552209031</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6393963102452237</v>
+        <v>0.6400023971176726</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7051883053785125</v>
+        <v>0.7057921826555432</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>75494</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59395</v>
+        <v>60633</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93048</v>
+        <v>95071</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1336944775487834</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1051830860688354</v>
+        <v>0.1073764762424795</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.16478031878211</v>
+        <v>0.1683631823385227</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -1770,19 +1770,19 @@
         <v>50662</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39331</v>
+        <v>38962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64068</v>
+        <v>64254</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2101304188100894</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1631346968127697</v>
+        <v>0.1616053686364339</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2657346718216195</v>
+        <v>0.2665059972652272</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>122</v>
@@ -1791,19 +1791,19 @@
         <v>126156</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>106208</v>
+        <v>106908</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>146230</v>
+        <v>147322</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.156564871951904</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1318087435672226</v>
+        <v>0.1326774157920126</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1814773583888081</v>
+        <v>0.1828325853011634</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>29883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20304</v>
+        <v>19750</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40283</v>
+        <v>41306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1601649253848727</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1088268902041455</v>
+        <v>0.1058571186461856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2159062076712282</v>
+        <v>0.2213898614143231</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -1916,19 +1916,19 @@
         <v>26441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18342</v>
+        <v>17999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37325</v>
+        <v>36742</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1464762857528316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1016114503056058</v>
+        <v>0.09971289227494215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2067736642950884</v>
+        <v>0.203541138486609</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -1937,19 +1937,19 @@
         <v>56324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43266</v>
+        <v>43766</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73245</v>
+        <v>71852</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1534336168715841</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1178616470739209</v>
+        <v>0.1192237097462146</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1995284669003475</v>
+        <v>0.1957348696407659</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>135728</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122579</v>
+        <v>123535</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>147174</v>
+        <v>148604</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7274726056759678</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6569945524382946</v>
+        <v>0.6621202955514827</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7888178620626984</v>
+        <v>0.7964838579581989</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>115</v>
@@ -1987,19 +1987,19 @@
         <v>120659</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>106795</v>
+        <v>107564</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>133545</v>
+        <v>133030</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6684234883795102</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5916201048604386</v>
+        <v>0.5958809158619877</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.739808588353706</v>
+        <v>0.7369541460104009</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>247</v>
@@ -2008,19 +2008,19 @@
         <v>256387</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>236346</v>
+        <v>238025</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>272705</v>
+        <v>273191</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6984355474551174</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6438395258910439</v>
+        <v>0.6484137100476028</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7428871475422142</v>
+        <v>0.7442118147080319</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>20964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13012</v>
+        <v>13441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31215</v>
+        <v>32121</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1123624689391595</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06974206722056404</v>
+        <v>0.07203986803095794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1673072726615507</v>
+        <v>0.1721635335641826</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2058,19 +2058,19 @@
         <v>33413</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22690</v>
+        <v>24128</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45048</v>
+        <v>45203</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1851002258676583</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.125699435643941</v>
+        <v>0.1336622311208004</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.249553612962716</v>
+        <v>0.2504141732888946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2079,19 +2079,19 @@
         <v>54377</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41772</v>
+        <v>41584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69045</v>
+        <v>71049</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1481308356732985</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1137938545905136</v>
+        <v>0.113281082362621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1880877556808546</v>
+        <v>0.1935471858537998</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>6880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2755</v>
+        <v>2930</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12475</v>
+        <v>13467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07843992449387402</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03140763598941738</v>
+        <v>0.0334109657442842</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1422331011940393</v>
+        <v>0.1535446712564095</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -2204,19 +2204,19 @@
         <v>21741</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13565</v>
+        <v>13896</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31320</v>
+        <v>30782</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1285159805117223</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08018704973731033</v>
+        <v>0.08214304961915876</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1851390723109275</v>
+        <v>0.1819554238060689</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -2225,19 +2225,19 @@
         <v>28621</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19603</v>
+        <v>19621</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39223</v>
+        <v>38917</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1114184899741138</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07631168003046312</v>
+        <v>0.07638220917223112</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1526935972609172</v>
+        <v>0.1515002218470831</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>52369</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42738</v>
+        <v>42602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61121</v>
+        <v>61030</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5971000536686102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4872922362618161</v>
+        <v>0.4857451333588428</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.696893738821412</v>
+        <v>0.6958598747855352</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>104</v>
@@ -2275,19 +2275,19 @@
         <v>102699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>89376</v>
+        <v>89611</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115046</v>
+        <v>115434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6070706720800999</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5283193293028149</v>
+        <v>0.5297076026151224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6800563750684883</v>
+        <v>0.682348817843213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>158</v>
@@ -2296,19 +2296,19 @@
         <v>155067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138414</v>
+        <v>138228</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>170403</v>
+        <v>170387</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6036663993098204</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5388362358669431</v>
+        <v>0.5381136442958676</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6633672329422411</v>
+        <v>0.6633051999642964</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>28457</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20217</v>
+        <v>20738</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39214</v>
+        <v>38952</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3244600218375158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2305130536484307</v>
+        <v>0.2364553965678061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4471168462589944</v>
+        <v>0.4441308443714533</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2346,19 +2346,19 @@
         <v>44731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34360</v>
+        <v>34195</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57402</v>
+        <v>56238</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2644133474081778</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2031103089125043</v>
+        <v>0.2021306739023592</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3393145169905687</v>
+        <v>0.3324308224158367</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -2367,19 +2367,19 @@
         <v>73188</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>57873</v>
+        <v>59953</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>86485</v>
+        <v>88151</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2849151107160658</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2252969619195</v>
+        <v>0.2333919115735351</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3366800971402674</v>
+        <v>0.3431669827871633</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>214918</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>187635</v>
+        <v>189031</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>245531</v>
+        <v>241628</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1557436046105293</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1359728365563498</v>
+        <v>0.1369844070444248</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1779274156947077</v>
+        <v>0.1750992485483853</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>152</v>
@@ -2492,19 +2492,19 @@
         <v>159958</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>138461</v>
+        <v>136810</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>184453</v>
+        <v>184983</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1855109121942913</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1605797796642052</v>
+        <v>0.1586653531411124</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2139193490744233</v>
+        <v>0.2145329282695784</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>361</v>
@@ -2513,19 +2513,19 @@
         <v>374876</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>341621</v>
+        <v>343756</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>412401</v>
+        <v>414101</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1671908487132748</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1523594605381282</v>
+        <v>0.1533115419294237</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1839263581407821</v>
+        <v>0.1846848825101799</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>972454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>934090</v>
+        <v>939152</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1006052</v>
+        <v>1004545</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7047032752965807</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6769026733945319</v>
+        <v>0.6805703404733525</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7290508679936097</v>
+        <v>0.7279586091237327</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>514</v>
@@ -2563,19 +2563,19 @@
         <v>525422</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>496756</v>
+        <v>497636</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>555098</v>
+        <v>555094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6093561312170018</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.576110851393647</v>
+        <v>0.5771315438061394</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6437728240547562</v>
+        <v>0.6437684901531476</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1465</v>
@@ -2584,19 +2584,19 @@
         <v>1497875</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1452102</v>
+        <v>1454740</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1547236</v>
+        <v>1543190</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6680368072356947</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6476224720993289</v>
+        <v>0.648799028613751</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6900512536931974</v>
+        <v>0.6882467631751291</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>192576</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>168104</v>
+        <v>168434</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>220004</v>
+        <v>220441</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.13955312009289</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1218191008775746</v>
+        <v>0.122058464888445</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1594292261104964</v>
+        <v>0.1597459554455283</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>178</v>
@@ -2634,19 +2634,19 @@
         <v>176877</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>154943</v>
+        <v>152896</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>201546</v>
+        <v>202162</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2051329565887068</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1796947358310583</v>
+        <v>0.1773211777247117</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2337419548055204</v>
+        <v>0.2344562800843505</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>362</v>
@@ -2655,19 +2655,19 @@
         <v>369453</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>332686</v>
+        <v>335329</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>406203</v>
+        <v>404397</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1647723440510306</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1483746771135045</v>
+        <v>0.1495531971994613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1811623285677018</v>
+        <v>0.1803568097357819</v>
       </c>
     </row>
     <row r="31">
@@ -3001,19 +3001,19 @@
         <v>54324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43199</v>
+        <v>42463</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67707</v>
+        <v>67555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3662966781615825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2912849623012038</v>
+        <v>0.286321425861173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4565332114366136</v>
+        <v>0.4555106843806819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -3022,19 +3022,19 @@
         <v>31818</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22375</v>
+        <v>22656</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43034</v>
+        <v>41839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3217903809043126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2262826114966099</v>
+        <v>0.2291273423540248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4352215388770848</v>
+        <v>0.4231297081763875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -3043,19 +3043,19 @@
         <v>86142</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70221</v>
+        <v>71251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103717</v>
+        <v>102112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3484932342522693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2840832056187491</v>
+        <v>0.2882497644237919</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4195935710887215</v>
+        <v>0.4130983787324928</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>75328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62821</v>
+        <v>61934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88538</v>
+        <v>88165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5079201259958066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4235884304431471</v>
+        <v>0.4176071920843094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5969927441977634</v>
+        <v>0.5944770082762891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -3093,19 +3093,19 @@
         <v>55283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44020</v>
+        <v>45218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65611</v>
+        <v>65599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5590953098496955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.445190464285794</v>
+        <v>0.4573014390846488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6635436957508881</v>
+        <v>0.6634280088144374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -3114,19 +3114,19 @@
         <v>130610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113714</v>
+        <v>113724</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147104</v>
+        <v>146750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5283912631480369</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4600357321307266</v>
+        <v>0.4600744953900665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5951185194806514</v>
+        <v>0.5936850585908493</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>18654</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11294</v>
+        <v>11079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29827</v>
+        <v>29308</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.125783195842611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07615019212099589</v>
+        <v>0.07470109664853725</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2011188403771928</v>
+        <v>0.1976217327388426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -3164,19 +3164,19 @@
         <v>11778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6725</v>
+        <v>5983</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20547</v>
+        <v>18366</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1191143092459919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06800773270790364</v>
+        <v>0.06051170674660551</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2077994396712756</v>
+        <v>0.185743529334453</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -3185,19 +3185,19 @@
         <v>30432</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20864</v>
+        <v>21169</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43289</v>
+        <v>43380</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1231155025996939</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08440653016925709</v>
+        <v>0.08564165958322655</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1751297685908099</v>
+        <v>0.1754967734685454</v>
       </c>
     </row>
     <row r="7">
@@ -3289,19 +3289,19 @@
         <v>44058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32092</v>
+        <v>32751</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56486</v>
+        <v>56793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2927935574651966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2132704141328726</v>
+        <v>0.2176525262380204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3753850699459778</v>
+        <v>0.3774237053116311</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -3310,19 +3310,19 @@
         <v>36722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27113</v>
+        <v>26491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49344</v>
+        <v>47794</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2921452414029276</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2157033166033286</v>
+        <v>0.2107507056889504</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.392560058224413</v>
+        <v>0.3802301846014539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>71</v>
@@ -3331,19 +3331,19 @@
         <v>80780</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>64647</v>
+        <v>65410</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>97550</v>
+        <v>96974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2924984835646932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.234081300485575</v>
+        <v>0.2368447705195037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3532200935796878</v>
+        <v>0.3511333127822109</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>74997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61403</v>
+        <v>62861</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88273</v>
+        <v>89524</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4984000202849313</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.408061183253758</v>
+        <v>0.4177462966928775</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5866260652540882</v>
+        <v>0.5949415201634156</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -3381,19 +3381,19 @@
         <v>60410</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48417</v>
+        <v>48436</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72213</v>
+        <v>72636</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4805964468087634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3851864867155645</v>
+        <v>0.3853374941339957</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5744975602151575</v>
+        <v>0.5778682029684982</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>121</v>
@@ -3402,19 +3402,19 @@
         <v>135407</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>117312</v>
+        <v>118106</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>152131</v>
+        <v>153346</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4902969203090856</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4247766109610666</v>
+        <v>0.4276513401082836</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.55085371233937</v>
+        <v>0.5552531796488496</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>31420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21794</v>
+        <v>22233</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43512</v>
+        <v>43559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2088064222498721</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1448367110230858</v>
+        <v>0.1477501722763678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.289159989563027</v>
+        <v>0.2894753422731609</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3452,19 +3452,19 @@
         <v>28566</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19018</v>
+        <v>19984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39052</v>
+        <v>39872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.227258311788309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1513035806199264</v>
+        <v>0.1589873627063456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3106873970286416</v>
+        <v>0.3172094702563077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3473,19 +3473,19 @@
         <v>59986</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45616</v>
+        <v>46537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76113</v>
+        <v>75894</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2172045961262213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1651735862404936</v>
+        <v>0.1685049459121847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2755985740892829</v>
+        <v>0.2748073160712247</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>84149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69961</v>
+        <v>67644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100888</v>
+        <v>100850</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3083590638521064</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2563699159132579</v>
+        <v>0.2478770701314608</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3697002523736224</v>
+        <v>0.3695609672630328</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -3598,19 +3598,19 @@
         <v>25179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17496</v>
+        <v>17263</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34744</v>
+        <v>34581</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2953658605458124</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2052368233124901</v>
+        <v>0.2024976566207692</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4075640542796478</v>
+        <v>0.4056541562724987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -3619,19 +3619,19 @@
         <v>109328</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>92872</v>
+        <v>92543</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128963</v>
+        <v>127892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.305266284653733</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2593187412534533</v>
+        <v>0.2583991445046955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3600901253722099</v>
+        <v>0.3571015964648636</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>141878</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124520</v>
+        <v>124845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158898</v>
+        <v>158680</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5199068714542082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4562984388317912</v>
+        <v>0.4574895588701204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5822741112763294</v>
+        <v>0.5814737856946742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3669,19 +3669,19 @@
         <v>48244</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38280</v>
+        <v>38329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57296</v>
+        <v>57311</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5659216559431405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4490386669244705</v>
+        <v>0.4496206617874923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6721105942499261</v>
+        <v>0.6722853201217905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -3690,19 +3690,19 @@
         <v>190122</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169926</v>
+        <v>170525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207544</v>
+        <v>209108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5308597954507153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4744677527872185</v>
+        <v>0.4761409523472919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5795054281608857</v>
+        <v>0.5838722766305888</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>46865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35221</v>
+        <v>34613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60430</v>
+        <v>59889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1717340646936854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1290645893532336</v>
+        <v>0.1268369589723367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.221442997209358</v>
+        <v>0.2194622108892429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -3740,19 +3740,19 @@
         <v>11825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6366</v>
+        <v>5979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19594</v>
+        <v>19310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1387124835110472</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07468014709463554</v>
+        <v>0.07014103031318686</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2298430073358097</v>
+        <v>0.2265172480964911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -3761,7 +3761,7 @@
         <v>58690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>44865</v>
+        <v>45548</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>74417</v>
@@ -3770,10 +3770,10 @@
         <v>0.1638739198955518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1252731531565379</v>
+        <v>0.1271787359484688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2077864597917455</v>
+        <v>0.207788722193989</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>153196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132242</v>
+        <v>131920</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>174509</v>
+        <v>173893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3073583839557701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2653192655711356</v>
+        <v>0.2646733450208058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3501200423553114</v>
+        <v>0.348884471145397</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -3886,19 +3886,19 @@
         <v>79339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65417</v>
+        <v>65069</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98356</v>
+        <v>94770</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2775363522071104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.228835282113773</v>
+        <v>0.2276165166070556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3440580887350601</v>
+        <v>0.3315157897296671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>219</v>
@@ -3907,19 +3907,19 @@
         <v>232535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207593</v>
+        <v>209088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>263120</v>
+        <v>262682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2964884837067885</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2646865850936122</v>
+        <v>0.266592408820264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.335484414872939</v>
+        <v>0.334925754554422</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>280868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258173</v>
+        <v>257958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>302814</v>
+        <v>304035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5635081551245589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5179758603485526</v>
+        <v>0.5175435384333913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6075402097732761</v>
+        <v>0.6099886476442581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -3957,19 +3957,19 @@
         <v>149374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130052</v>
+        <v>132614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166476</v>
+        <v>165422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5225244544876543</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4549356690064852</v>
+        <v>0.463897408948929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5823484541319457</v>
+        <v>0.5786631031878365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -3978,19 +3978,19 @@
         <v>430242</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400296</v>
+        <v>397220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>460057</v>
+        <v>454618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5485699127703203</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5103878261713448</v>
+        <v>0.5064659426478674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5865840279410227</v>
+        <v>0.5796494346542065</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>64364</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50670</v>
+        <v>50665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81618</v>
+        <v>80697</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.129133460919671</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1016601472842517</v>
+        <v>0.1016495206687337</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1637507760212199</v>
+        <v>0.1619036904450138</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -4028,19 +4028,19 @@
         <v>57157</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42945</v>
+        <v>44558</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72093</v>
+        <v>72685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1999391933052354</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1502245974845825</v>
+        <v>0.155866708885049</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2521863846619656</v>
+        <v>0.254258587813931</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>111</v>
@@ -4049,19 +4049,19 @@
         <v>121520</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101596</v>
+        <v>101754</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>145610</v>
+        <v>145859</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1549416035228912</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1295370754232943</v>
+        <v>0.1297394202918128</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1856565045269524</v>
+        <v>0.1859739402686595</v>
       </c>
     </row>
     <row r="19">
@@ -4153,19 +4153,19 @@
         <v>56236</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44827</v>
+        <v>43879</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71807</v>
+        <v>69974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2574097209699558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2051843036715824</v>
+        <v>0.2008473476254761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3286829441691216</v>
+        <v>0.3202902210634395</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -4174,19 +4174,19 @@
         <v>54787</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42729</v>
+        <v>42172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70121</v>
+        <v>67758</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.254295281211498</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1983296494110317</v>
+        <v>0.1957416547884002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.325468350468091</v>
+        <v>0.3145024079718782</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -4195,19 +4195,19 @@
         <v>111023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93072</v>
+        <v>92750</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>130881</v>
+        <v>131812</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2558633553824065</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2144935837129393</v>
+        <v>0.2137515039197584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3016280702331414</v>
+        <v>0.3037741720544642</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>123735</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>107968</v>
+        <v>108515</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>137698</v>
+        <v>139297</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5663694107580197</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4942009792797518</v>
+        <v>0.4967021383847831</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6302824073968057</v>
+        <v>0.6376035845985214</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>98</v>
@@ -4245,19 +4245,19 @@
         <v>107451</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90874</v>
+        <v>92412</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>122341</v>
+        <v>122345</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4987383661818754</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4217952123164166</v>
+        <v>0.4289322423933764</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.567850055236926</v>
+        <v>0.5678700390427165</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>217</v>
@@ -4266,19 +4266,19 @@
         <v>231186</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>211595</v>
+        <v>209906</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>253184</v>
+        <v>251700</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5327895928474136</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4876396640922224</v>
+        <v>0.4837471665993197</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.583487356362106</v>
+        <v>0.5800663008191778</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>38499</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28709</v>
+        <v>29282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52001</v>
+        <v>51302</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1762208682720245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1314088703738334</v>
+        <v>0.1340323605837378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2380229738760783</v>
+        <v>0.2348231624599395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -4316,19 +4316,19 @@
         <v>53208</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41477</v>
+        <v>39884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68794</v>
+        <v>67475</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2469663526066266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1925162070199043</v>
+        <v>0.1851240604438037</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.319310176319609</v>
+        <v>0.3131882483791331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -4337,19 +4337,19 @@
         <v>91707</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74153</v>
+        <v>74865</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109041</v>
+        <v>110158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.21134705177018</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1708923491957435</v>
+        <v>0.1725340144289289</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2512947170931412</v>
+        <v>0.2538703456271197</v>
       </c>
     </row>
     <row r="23">
@@ -4441,19 +4441,19 @@
         <v>14099</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8111</v>
+        <v>8339</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20864</v>
+        <v>22322</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.225402521692278</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1296716548058865</v>
+        <v>0.1333091079210538</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3335455354516804</v>
+        <v>0.356864188484544</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -4462,19 +4462,19 @@
         <v>30342</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21363</v>
+        <v>21070</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42070</v>
+        <v>40964</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1847997553060065</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1301137624458403</v>
+        <v>0.1283267401376377</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2562287480127194</v>
+        <v>0.2494904757100613</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -4483,19 +4483,19 @@
         <v>44441</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31626</v>
+        <v>32165</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56802</v>
+        <v>56579</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1960007699543717</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1394806182186294</v>
+        <v>0.1418565858802192</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2505171000969794</v>
+        <v>0.2495321350163183</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>33370</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25069</v>
+        <v>25253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40573</v>
+        <v>41513</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5334868953989359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4007754954337692</v>
+        <v>0.4037147340888403</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6486408658779388</v>
+        <v>0.6636627911658768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -4533,19 +4533,19 @@
         <v>90365</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77975</v>
+        <v>77161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103161</v>
+        <v>103458</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5503714238259904</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4749099683343252</v>
+        <v>0.4699500281253648</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6283011683010576</v>
+        <v>0.6301112724320785</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -4554,19 +4554,19 @@
         <v>123736</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>107896</v>
+        <v>108719</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138597</v>
+        <v>139024</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5457135182920925</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4758561093881054</v>
+        <v>0.4794838734784475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6112572606473594</v>
+        <v>0.6131395227767914</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>15082</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9104</v>
+        <v>9068</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24067</v>
+        <v>23861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2411105829087861</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1455509446411042</v>
+        <v>0.1449652912807609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3847525528300989</v>
+        <v>0.3814700066094403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -4604,19 +4604,19 @@
         <v>43482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33067</v>
+        <v>33337</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55740</v>
+        <v>55758</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2648288208680032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2013957309106802</v>
+        <v>0.2030392693520359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3394832066997763</v>
+        <v>0.3395970330642246</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -4625,19 +4625,19 @@
         <v>58564</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46120</v>
+        <v>46112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73161</v>
+        <v>72217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2582857117535358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2034018813088609</v>
+        <v>0.2033668221569328</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3226626148520186</v>
+        <v>0.3185018265323142</v>
       </c>
     </row>
     <row r="27">
@@ -4729,19 +4729,19 @@
         <v>406062</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>369131</v>
+        <v>372704</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>439486</v>
+        <v>443978</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3005371135721168</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2732033588102323</v>
+        <v>0.2758477049083872</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3252751250692991</v>
+        <v>0.3285995944646828</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>237</v>
@@ -4750,19 +4750,19 @@
         <v>258188</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>231094</v>
+        <v>231896</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>291093</v>
+        <v>287249</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2647185314316126</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2369387628502494</v>
+        <v>0.2377609252297913</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2984553124199567</v>
+        <v>0.2945144649060071</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>612</v>
@@ -4771,19 +4771,19 @@
         <v>664250</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>619193</v>
+        <v>616674</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>708209</v>
+        <v>707825</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2855207004270942</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2661531471033439</v>
+        <v>0.2650705397451608</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3044156342424854</v>
+        <v>0.304250673628516</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>730176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>689920</v>
+        <v>695761</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>770628</v>
+        <v>770031</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.540421839209377</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5106273314524753</v>
+        <v>0.514950455713396</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5703618775029783</v>
+        <v>0.5699195663388423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>471</v>
@@ -4821,19 +4821,19 @@
         <v>511127</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>476968</v>
+        <v>478069</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>542229</v>
+        <v>543257</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.524055219944196</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4890321694057133</v>
+        <v>0.4901611608632137</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.555943349294636</v>
+        <v>0.5569980385172149</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1162</v>
@@ -4842,19 +4842,19 @@
         <v>1241303</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1192236</v>
+        <v>1192718</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1289719</v>
+        <v>1290177</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5335603750757836</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5124694437176373</v>
+        <v>0.5126767887736732</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5543714439215804</v>
+        <v>0.5545684510383815</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>214884</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>190014</v>
+        <v>186754</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>245836</v>
+        <v>241798</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1590410472185061</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1406343786581248</v>
+        <v>0.1382210689865778</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1819492322866408</v>
+        <v>0.1789612076297623</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>189</v>
@@ -4892,19 +4892,19 @@
         <v>206016</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>182621</v>
+        <v>180619</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>235381</v>
+        <v>233761</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2112262486241914</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1872403890147989</v>
+        <v>0.1851876769618495</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2413340598795844</v>
+        <v>0.2396738485751879</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>390</v>
@@ -4913,19 +4913,19 @@
         <v>420899</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>382801</v>
+        <v>384333</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>458508</v>
+        <v>462413</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1809189244971222</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1645429028806192</v>
+        <v>0.1652013513140212</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1970847200428111</v>
+        <v>0.1987631298282638</v>
       </c>
     </row>
     <row r="31">
@@ -5259,19 +5259,19 @@
         <v>27270</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18313</v>
+        <v>18802</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37790</v>
+        <v>38199</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.258716900967751</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1737464492495614</v>
+        <v>0.178380037037847</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3585255820726285</v>
+        <v>0.3624080784170599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -5280,19 +5280,19 @@
         <v>17357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11086</v>
+        <v>11246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26044</v>
+        <v>25513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2647776944722497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1691174049843199</v>
+        <v>0.1715483715761767</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3972894778625827</v>
+        <v>0.3891889882285072</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -5301,19 +5301,19 @@
         <v>44627</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33130</v>
+        <v>34261</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57208</v>
+        <v>59217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2610409280572473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1937931189291421</v>
+        <v>0.2004047626274575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3346322452944478</v>
+        <v>0.3463866696419593</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>68353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56716</v>
+        <v>57533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77584</v>
+        <v>78065</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6484935395401809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5380906821831458</v>
+        <v>0.5458407736553461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7360719260033537</v>
+        <v>0.7406321127821968</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -5351,19 +5351,19 @@
         <v>42311</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33108</v>
+        <v>33839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49428</v>
+        <v>48940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6454394849561759</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5050543111187743</v>
+        <v>0.5162028823058876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7540077604446359</v>
+        <v>0.746553164843989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -5372,19 +5372,19 @@
         <v>110664</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97319</v>
+        <v>97069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>123644</v>
+        <v>123620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6473224543380931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5692613079302804</v>
+        <v>0.5677986864696197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7232442396820997</v>
+        <v>0.7231072793240514</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>9780</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4294</v>
+        <v>4498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18600</v>
+        <v>17837</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09278955949206823</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04074136564774918</v>
+        <v>0.04267120554795265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1764674948473954</v>
+        <v>0.1692227278721975</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -5422,19 +5422,19 @@
         <v>5886</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2133</v>
+        <v>1952</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12059</v>
+        <v>11082</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08978282057157437</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03254295939556068</v>
+        <v>0.02977444659909403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1839534546072993</v>
+        <v>0.1690439689775206</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -5443,19 +5443,19 @@
         <v>15666</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9329</v>
+        <v>8699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25585</v>
+        <v>25773</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0916366176046596</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05457030451539294</v>
+        <v>0.05088661261561776</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1496563829960216</v>
+        <v>0.1507566686651576</v>
       </c>
     </row>
     <row r="7">
@@ -5547,19 +5547,19 @@
         <v>23858</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16174</v>
+        <v>15819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33450</v>
+        <v>33510</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.228096861408927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1546395810794002</v>
+        <v>0.1512463580030869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.319803449080815</v>
+        <v>0.3203791903077128</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -5568,19 +5568,19 @@
         <v>23118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16116</v>
+        <v>15388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33439</v>
+        <v>32985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2333251832440716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1626578397759436</v>
+        <v>0.1553099379447091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3374920367763574</v>
+        <v>0.3329171170505432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -5589,19 +5589,19 @@
         <v>46975</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36155</v>
+        <v>36162</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60928</v>
+        <v>60545</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2306402544285708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1775131294063661</v>
+        <v>0.1775482836995788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2991435413547955</v>
+        <v>0.2972654187268599</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>70944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60583</v>
+        <v>59610</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80378</v>
+        <v>80633</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6782750903373415</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.57922437545113</v>
+        <v>0.5699192088555993</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7684725540896656</v>
+        <v>0.7709094820822784</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>62</v>
@@ -5639,19 +5639,19 @@
         <v>62089</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51678</v>
+        <v>52985</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71636</v>
+        <v>71566</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.626650968436798</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5215804910741675</v>
+        <v>0.5347716178875221</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7230092458312453</v>
+        <v>0.7223003287316335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>127</v>
@@ -5660,19 +5660,19 @@
         <v>133032</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>118598</v>
+        <v>117043</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>146163</v>
+        <v>146021</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6531617871729333</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5822944457422035</v>
+        <v>0.5746564611223663</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7176309930336466</v>
+        <v>0.716934501649058</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>9793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4655</v>
+        <v>4623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16867</v>
+        <v>17205</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09362804825373156</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04450069283586476</v>
+        <v>0.04419959752721987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1612576934132111</v>
+        <v>0.1644932432554505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5710,19 +5710,19 @@
         <v>13874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7620</v>
+        <v>7317</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24362</v>
+        <v>21988</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1400238483191304</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0769078154887007</v>
+        <v>0.07385068623168738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2458857865547957</v>
+        <v>0.2219235517222291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -5731,19 +5731,19 @@
         <v>23667</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15561</v>
+        <v>14941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34167</v>
+        <v>34502</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1161979583984959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07640144692315806</v>
+        <v>0.07335908588560999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1677511553718151</v>
+        <v>0.1693960659920304</v>
       </c>
     </row>
     <row r="11">
@@ -5835,19 +5835,19 @@
         <v>35836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24471</v>
+        <v>24609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48378</v>
+        <v>47653</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1668964738727778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1139678716682561</v>
+        <v>0.1146101161217411</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2253085748568176</v>
+        <v>0.22193304024536</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -5856,19 +5856,19 @@
         <v>16041</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9534</v>
+        <v>10157</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23292</v>
+        <v>23868</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3055309431806986</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1815934090470016</v>
+        <v>0.1934560981291578</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4436242711546411</v>
+        <v>0.4545970160510078</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>48</v>
@@ -5877,19 +5877,19 @@
         <v>51877</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39232</v>
+        <v>39265</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66424</v>
+        <v>65301</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.194135188142276</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1468137647282721</v>
+        <v>0.1469369328900911</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2485731795274577</v>
+        <v>0.2443717030217004</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>149495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134591</v>
+        <v>135135</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>163445</v>
+        <v>162844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6962400866251881</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6268290216782456</v>
+        <v>0.6293599341785127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7612057265804623</v>
+        <v>0.7584098905084011</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5927,19 +5927,19 @@
         <v>27465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20355</v>
+        <v>19912</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35128</v>
+        <v>34753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.523113334439425</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3876984130574051</v>
+        <v>0.379263753736383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6690653722957191</v>
+        <v>0.6619242603304036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -5948,19 +5948,19 @@
         <v>176960</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160871</v>
+        <v>161470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192157</v>
+        <v>193158</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6622243749574059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6020160483216715</v>
+        <v>0.604255742698309</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7190947678064709</v>
+        <v>0.722838877387188</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>29387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19863</v>
+        <v>19816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41540</v>
+        <v>41287</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1368634395020342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09250667927495536</v>
+        <v>0.09228999086806183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1934616758802082</v>
+        <v>0.1922857758475754</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -5998,19 +5998,19 @@
         <v>8997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4778</v>
+        <v>4177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15113</v>
+        <v>15565</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1713557223798765</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09099559986691813</v>
+        <v>0.07955167108477479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2878498330774844</v>
+        <v>0.2964591994767569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -6019,19 +6019,19 @@
         <v>38384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27369</v>
+        <v>27361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51123</v>
+        <v>50973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1436404369003181</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1024192749569999</v>
+        <v>0.1023919863141992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1913129103248524</v>
+        <v>0.1907531224895817</v>
       </c>
     </row>
     <row r="15">
@@ -6123,19 +6123,19 @@
         <v>103807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86051</v>
+        <v>87537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121794</v>
+        <v>123402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2429161912116755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.201366808468135</v>
+        <v>0.2048442501276445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2850085530485109</v>
+        <v>0.2887700473561227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -6144,19 +6144,19 @@
         <v>72727</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58810</v>
+        <v>57936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88916</v>
+        <v>90095</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2309711260783175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1867742669724398</v>
+        <v>0.1839962439459971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2823859823312193</v>
+        <v>0.2861297260631844</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>170</v>
@@ -6165,19 +6165,19 @@
         <v>176533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>153860</v>
+        <v>152684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201790</v>
+        <v>200019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2378486367700939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2073000204318277</v>
+        <v>0.2057160475254116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2718782637969702</v>
+        <v>0.269491072677789</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>275559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>256129</v>
+        <v>255037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296612</v>
+        <v>295295</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6448293907341003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5993615550102082</v>
+        <v>0.5968056870299837</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6940944826832821</v>
+        <v>0.6910132357928778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>194</v>
@@ -6215,19 +6215,19 @@
         <v>197146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180001</v>
+        <v>179789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212646</v>
+        <v>213920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6261092049527242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5716593892254004</v>
+        <v>0.5709884607041733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6753376170496301</v>
+        <v>0.6793839784328501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>454</v>
@@ -6236,19 +6236,19 @@
         <v>472704</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>445228</v>
+        <v>445457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>498417</v>
+        <v>497082</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6368875704472672</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5998688043690223</v>
+        <v>0.6001775908053657</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6715322787074054</v>
+        <v>0.6697333613205025</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>47970</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35326</v>
+        <v>36326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61155</v>
+        <v>61930</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1122544180542242</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08266641692866238</v>
+        <v>0.08500643334907039</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1431066907359178</v>
+        <v>0.1449202513589698</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -6286,19 +6286,19 @@
         <v>45002</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33534</v>
+        <v>34171</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58034</v>
+        <v>58938</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1429196689689584</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.106498467593855</v>
+        <v>0.1085215399403893</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1843092369387695</v>
+        <v>0.1871795122685605</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -6307,19 +6307,19 @@
         <v>92972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75340</v>
+        <v>76506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>112077</v>
+        <v>113270</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.125263792782639</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1015079388179937</v>
+        <v>0.1030787830187963</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1510044719917052</v>
+        <v>0.1526125662765096</v>
       </c>
     </row>
     <row r="19">
@@ -6411,19 +6411,19 @@
         <v>56059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42914</v>
+        <v>42799</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70075</v>
+        <v>69569</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2323948004933686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1779009610313152</v>
+        <v>0.1774259531272419</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2904990476034698</v>
+        <v>0.2884011223403368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -6432,19 +6432,19 @@
         <v>40730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29343</v>
+        <v>29543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53043</v>
+        <v>54990</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1901428779221594</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1369840768026729</v>
+        <v>0.1379191283996133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2476249489278753</v>
+        <v>0.2567150988627261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -6453,19 +6453,19 @@
         <v>96789</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80607</v>
+        <v>80979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115606</v>
+        <v>117060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2125219850658042</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1769912442741944</v>
+        <v>0.177806967751284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2538386140172778</v>
+        <v>0.2570328025460608</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>156371</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>141377</v>
+        <v>141915</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>171672</v>
+        <v>171537</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6482440118113247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5860839097566618</v>
+        <v>0.5883129458165611</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7116714561247225</v>
+        <v>0.7111118976440062</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>148</v>
@@ -6503,19 +6503,19 @@
         <v>151326</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>137785</v>
+        <v>137296</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>164436</v>
+        <v>165662</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7064432807762928</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6432285130601866</v>
+        <v>0.6409466564864909</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7676469440674049</v>
+        <v>0.7733712259510606</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>292</v>
@@ -6524,19 +6524,19 @@
         <v>307696</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>287527</v>
+        <v>287666</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>326668</v>
+        <v>327647</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6756175195661669</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6313298375766118</v>
+        <v>0.6316351685930846</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7172739408653435</v>
+        <v>0.7194229275468598</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>28793</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19161</v>
+        <v>19077</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40955</v>
+        <v>40314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1193611876953067</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07943148627900308</v>
+        <v>0.07908297543627289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1697823977773589</v>
+        <v>0.167123597805425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -6574,19 +6574,19 @@
         <v>22152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14736</v>
+        <v>14799</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33783</v>
+        <v>31858</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1034138413015478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06879310319021553</v>
+        <v>0.06908783996786239</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1577089979064283</v>
+        <v>0.1487250869741909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -6595,19 +6595,19 @@
         <v>50945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38210</v>
+        <v>38432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65092</v>
+        <v>65541</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1118604953680289</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08389837933784002</v>
+        <v>0.08438565322580331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1429235901541082</v>
+        <v>0.1439099673066018</v>
       </c>
     </row>
     <row r="23">
@@ -6699,19 +6699,19 @@
         <v>9261</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4706</v>
+        <v>4569</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16622</v>
+        <v>16772</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1287045065336766</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06540330358450676</v>
+        <v>0.06350284123221595</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2310022526282259</v>
+        <v>0.2330960150056678</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -6720,19 +6720,19 @@
         <v>28261</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19976</v>
+        <v>19509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40028</v>
+        <v>39110</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1661773507040673</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1174623161270216</v>
+        <v>0.1147181013437744</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2353723486851743</v>
+        <v>0.2299698428955951</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -6741,19 +6741,19 @@
         <v>37522</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27632</v>
+        <v>26291</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50117</v>
+        <v>49379</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1550362415396486</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1141710954618696</v>
+        <v>0.1086334354404716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2070807576704842</v>
+        <v>0.2040283211109875</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>48547</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39373</v>
+        <v>39044</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55408</v>
+        <v>55775</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6746792370599495</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5471860887572435</v>
+        <v>0.5426232777366271</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7700365741346759</v>
+        <v>0.7751369105395158</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>110</v>
@@ -6791,19 +6791,19 @@
         <v>115138</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>100892</v>
+        <v>102552</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>125870</v>
+        <v>127180</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6770255998008382</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5932580115391026</v>
+        <v>0.6030174293007925</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7401349781514498</v>
+        <v>0.7478347121566943</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>156</v>
@@ -6812,19 +6812,19 @@
         <v>163684</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>148113</v>
+        <v>147740</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177283</v>
+        <v>177749</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6763279990711818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6119893426315151</v>
+        <v>0.6104463102050817</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7325155865292188</v>
+        <v>0.7344434785103915</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>14148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8213</v>
+        <v>8251</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21546</v>
+        <v>21971</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1966162564063739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1141369851782092</v>
+        <v>0.1146628670149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2994380091825853</v>
+        <v>0.3053504222851831</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -6862,19 +6862,19 @@
         <v>26666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17973</v>
+        <v>17075</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37962</v>
+        <v>37235</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1567970494950944</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1056812628125141</v>
+        <v>0.1004022202595178</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2232220865303948</v>
+        <v>0.2189468269101474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -6883,19 +6883,19 @@
         <v>40813</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30251</v>
+        <v>30236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53526</v>
+        <v>53638</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1686357593891696</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1249960633982937</v>
+        <v>0.1249340345279572</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2211662247168668</v>
+        <v>0.2216284281856496</v>
       </c>
     </row>
     <row r="27">
@@ -6987,19 +6987,19 @@
         <v>256089</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>228038</v>
+        <v>226422</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>285014</v>
+        <v>283307</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.219776128564054</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.195702271144612</v>
+        <v>0.1943155712309841</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2445990918837285</v>
+        <v>0.2431344469852893</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>188</v>
@@ -7008,19 +7008,19 @@
         <v>198234</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>173608</v>
+        <v>175536</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>223720</v>
+        <v>225376</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2163459522732243</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1894704253169231</v>
+        <v>0.1915744612863867</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2441601906057396</v>
+        <v>0.2459677524736186</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>428</v>
@@ -7029,19 +7029,19 @@
         <v>454323</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>416055</v>
+        <v>416303</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>490969</v>
+        <v>493158</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2182661624216723</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1998812177328654</v>
+        <v>0.2000003465036538</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.235871666529466</v>
+        <v>0.2369233678940504</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>769268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>734250</v>
+        <v>736703</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>801663</v>
+        <v>800703</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6601866761002256</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.630134496674426</v>
+        <v>0.632239697196089</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6879877364299063</v>
+        <v>0.687164310359567</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>582</v>
@@ -7079,19 +7079,19 @@
         <v>595473</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>565403</v>
+        <v>565584</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>622618</v>
+        <v>624583</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6498796673799818</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.617062457613841</v>
+        <v>0.6172599531641055</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6795051134616926</v>
+        <v>0.6816492200697272</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1299</v>
@@ -7100,19 +7100,19 @@
         <v>1364741</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1319992</v>
+        <v>1320186</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1408753</v>
+        <v>1407111</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6556495232318998</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6341512325053558</v>
+        <v>0.6342443669759579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6767939524794442</v>
+        <v>0.6760050034477221</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>139871</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>117360</v>
+        <v>118502</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>164707</v>
+        <v>161978</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1200371953357204</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1007188020663312</v>
+        <v>0.1016985071244744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1413516193438947</v>
+        <v>0.1390101040596892</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>117</v>
@@ -7150,19 +7150,19 @@
         <v>122575</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>102767</v>
+        <v>102798</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>143803</v>
+        <v>143335</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.133774380346794</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1121562418956451</v>
+        <v>0.1121899977753541</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1569419671038547</v>
+        <v>0.1564315514637959</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>244</v>
@@ -7171,19 +7171,19 @@
         <v>262446</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>233289</v>
+        <v>235043</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>293999</v>
+        <v>297499</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1260843143464278</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1120767493136935</v>
+        <v>0.1129193094319524</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1412431075822446</v>
+        <v>0.1429245905638194</v>
       </c>
     </row>
     <row r="31">
